--- a/Documents/torqueCurveX.xlsx
+++ b/Documents/torqueCurveX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\KeyboardSteer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3477E2-E066-4204-A95B-1976863931FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE3DB3A-9322-4924-9651-5500C628E9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-120" windowWidth="27165" windowHeight="16440" xr2:uid="{05312BE7-E921-45C7-A3F6-FAC16CE33A5C}"/>
+    <workbookView xWindow="13815" yWindow="2580" windowWidth="14985" windowHeight="13110" xr2:uid="{05312BE7-E921-45C7-A3F6-FAC16CE33A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>normRpm</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Torque Curve 5</t>
+  </si>
+  <si>
+    <t>rpm</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -250,44 +268,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:f>Sheet1!$A$4:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -295,44 +319,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:f>Sheet1!$B$4:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.000">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.000">
+                <c:pt idx="12" formatCode="0.000">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -373,44 +403,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:f>Sheet1!$A$4:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.93</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -418,44 +454,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>Sheet1!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24499999999999997</c:v>
+                  <c:v>7.7000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.504</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63167999999999991</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75600000000000001</c:v>
+                  <c:v>0.56447999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91</c:v>
+                  <c:v>0.71399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98952000000000007</c:v>
+                  <c:v>0.88200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0352999999999999</c:v>
+                  <c:v>0.99133999999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0416000000000001</c:v>
+                  <c:v>1.0584</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.0715599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0546200000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.92288000000000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -762,41 +804,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$14</c:f>
+              <c:f>Sheet1!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -804,41 +852,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$14</c:f>
+              <c:f>Sheet1!$G$4:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -870,41 +924,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$14</c:f>
+              <c:f>Sheet1!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -912,41 +972,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$14</c:f>
+              <c:f>Sheet1!$H$4:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22727272727272727</c:v>
+                  <c:v>7.1428571428571438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47922077922077921</c:v>
+                  <c:v>0.25974025974025977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60467532467532459</c:v>
+                  <c:v>0.40909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.52363636363636357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80519480519480513</c:v>
+                  <c:v>0.64935064935064934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91792207792207803</c:v>
+                  <c:v>0.76623376623376616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98883116883116873</c:v>
+                  <c:v>0.92259740259740253</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.99168831168831162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.021090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.96701298701298699</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -987,41 +1053,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$14</c:f>
+              <c:f>Sheet1!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1029,41 +1101,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$14</c:f>
+              <c:f>Sheet1!$G$4:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1104,41 +1182,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$14</c:f>
+              <c:f>Sheet1!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1146,41 +1230,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$14</c:f>
+              <c:f>Sheet1!$H$4:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22727272727272727</c:v>
+                  <c:v>7.1428571428571438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47922077922077921</c:v>
+                  <c:v>0.25974025974025977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60467532467532459</c:v>
+                  <c:v>0.40909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.52363636363636357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80519480519480513</c:v>
+                  <c:v>0.64935064935064934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91792207792207803</c:v>
+                  <c:v>0.76623376623376616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98883116883116873</c:v>
+                  <c:v>0.92259740259740253</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.99168831168831162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.021090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.96701298701298699</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1488,38 +1578,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$13</c:f>
+              <c:f>Sheet1!$L$4:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.64500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1527,38 +1620,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$13</c:f>
+              <c:f>Sheet1!$M$4:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.64500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.000">
+                <c:pt idx="9" formatCode="0.000">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1599,38 +1695,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$13</c:f>
+              <c:f>Sheet1!$L$4:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.64500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1638,38 +1737,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$13</c:f>
+              <c:f>Sheet1!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27131782945736432</c:v>
+                  <c:v>8.5271317829457377E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58914728682170536</c:v>
+                  <c:v>0.24806201550387602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69767441860465118</c:v>
+                  <c:v>0.48604651162790696</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.65116279069767435</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0046511627906978</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0046511627906978</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.0046511627906978</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.92620155038759677</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2005,44 +2107,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$4:$R$15</c:f>
+              <c:f>Sheet1!$R$4:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.92</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,44 +2158,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$4:$S$15</c:f>
+              <c:f>Sheet1!$S$4:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.66700000000000004</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.000">
+                <c:pt idx="12" formatCode="0.000">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2128,44 +2242,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$4:$R$15</c:f>
+              <c:f>Sheet1!$R$4:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.92</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="12" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.03</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="13" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2173,44 +2293,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$4:$T$15</c:f>
+              <c:f>Sheet1!$T$4:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26236881559220387</c:v>
+                  <c:v>8.2458770614692659E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53973013493253374</c:v>
+                  <c:v>0.29985007496251875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67646176911544209</c:v>
+                  <c:v>0.47226386806596699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79460269865067468</c:v>
+                  <c:v>0.60449775112443771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86956521739130421</c:v>
+                  <c:v>0.7496251874062968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98995502248875555</c:v>
+                  <c:v>0.94452773613193397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0511244377811093</c:v>
+                  <c:v>1.025487256371814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0482758620689656</c:v>
+                  <c:v>1.0695652173913042</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.0826086956521739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.92653673163418282</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2546,41 +2672,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$4:$W$14</c:f>
+              <c:f>Sheet1!$W$4:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2588,41 +2717,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$4:$X$14</c:f>
+              <c:f>Sheet1!$X$4:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.96</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2663,41 +2795,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$4:$W$14</c:f>
+              <c:f>Sheet1!$W$4:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.02</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="11" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2705,41 +2840,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$4:$Y$14</c:f>
+              <c:f>Sheet1!$Y$4:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21084337349397589</c:v>
+                  <c:v>6.6265060240963861E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44457831325301206</c:v>
+                  <c:v>0.24096385542168677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5609638554216867</c:v>
+                  <c:v>0.37951807228915663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66265060240963869</c:v>
+                  <c:v>0.48578313253012045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74698795180722899</c:v>
+                  <c:v>0.60240963855421692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87903614457831336</c:v>
+                  <c:v>0.71084337349397586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98530120481927708</c:v>
+                  <c:v>0.84433734939759042</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.95433734939759041</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.97084337349397609</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5202,14 +5340,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5382,13 +5520,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E79CFD2-E33A-45DF-8BEC-F2ACC2DA3AAB}" name="Table1" displayName="Table1" ref="A3:C15" totalsRowShown="0">
-  <autoFilter ref="A3:C15" xr:uid="{7631759E-C694-4DBB-8CC4-473512E6BB90}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E79CFD2-E33A-45DF-8BEC-F2ACC2DA3AAB}" name="Table1" displayName="Table1" ref="A3:D17" totalsRowShown="0">
+  <autoFilter ref="A3:D17" xr:uid="{7631759E-C694-4DBB-8CC4-473512E6BB90}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{141B8C1D-A167-4510-B866-4BFA8A4124F1}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{A154313D-AF3F-4B7F-BB59-C48C2BF2E17E}" name="torqueRatio"/>
-    <tableColumn id="3" xr3:uid="{3123845C-5FCE-4F92-ACE2-ADB8333A29C2}" name="power" dataDxfId="4">
-      <calculatedColumnFormula>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{3123845C-5FCE-4F92-ACE2-ADB8333A29C2}" name="power" dataDxfId="9">
+      <calculatedColumnFormula>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{98958B5B-EB07-4253-A027-2BD26B1B9CE3}" name="rpm" dataDxfId="8">
+      <calculatedColumnFormula>Table1[[#This Row],[normRpm]]*2200</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5396,13 +5537,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7DC3AE1-5139-45D4-9408-F8ACEC23E81B}" name="Table13" displayName="Table13" ref="F3:H14" totalsRowShown="0">
-  <autoFilter ref="F3:H14" xr:uid="{0892A380-EAC7-4D4E-AE09-FACEFCFCFD99}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7DC3AE1-5139-45D4-9408-F8ACEC23E81B}" name="Table13" displayName="Table13" ref="F3:I16" totalsRowShown="0">
+  <autoFilter ref="F3:I16" xr:uid="{0892A380-EAC7-4D4E-AE09-FACEFCFCFD99}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AC7E7CD1-73C9-4F1B-A9E3-E07C2B38F4D1}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{C66E6BA9-21EB-4394-80DA-92AEF5F0A446}" name="torqueRatio"/>
-    <tableColumn id="3" xr3:uid="{9D769880-2614-4853-9C45-AAAB7D758D9C}" name="power" dataDxfId="3">
-      <calculatedColumnFormula>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{9D769880-2614-4853-9C45-AAAB7D758D9C}" name="power" dataDxfId="7">
+      <calculatedColumnFormula>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9350165B-107A-4C20-96DB-E34C1D89B593}" name="rpm" dataDxfId="6">
+      <calculatedColumnFormula>Table13[[#This Row],[normRpm]]*2200</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5410,13 +5554,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4E54338-B51B-4D60-9F3D-DB7EB86AC21B}" name="Table134" displayName="Table134" ref="L3:N13" totalsRowShown="0">
-  <autoFilter ref="L3:N13" xr:uid="{E4882443-C8C0-433C-A06F-8605D395746C}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4E54338-B51B-4D60-9F3D-DB7EB86AC21B}" name="Table134" displayName="Table134" ref="L3:O14" totalsRowShown="0">
+  <autoFilter ref="L3:O14" xr:uid="{E4882443-C8C0-433C-A06F-8605D395746C}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{818D4EE6-3503-4855-9746-A4C15578C7CE}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{7CE6B97D-791D-446F-901A-D912B8CCBEED}" name="torqueRatio"/>
-    <tableColumn id="3" xr3:uid="{550CF430-B165-415E-A313-561EE3E87E5F}" name="power" dataDxfId="2">
-      <calculatedColumnFormula>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{550CF430-B165-415E-A313-561EE3E87E5F}" name="power" dataDxfId="5">
+      <calculatedColumnFormula>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1D63BC7D-FECE-45CF-B320-07BF451D868F}" name="rpm" dataDxfId="4">
+      <calculatedColumnFormula>Table134[[#This Row],[normRpm]]*2200</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5424,13 +5571,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{461B91DD-5F0D-4604-B41B-AAC7CA38041F}" name="Table15" displayName="Table15" ref="R3:T15" totalsRowShown="0">
-  <autoFilter ref="R3:T15" xr:uid="{96454618-C667-42C2-917A-CAB439E0EF07}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{461B91DD-5F0D-4604-B41B-AAC7CA38041F}" name="Table15" displayName="Table15" ref="R3:U17" totalsRowShown="0">
+  <autoFilter ref="R3:U17" xr:uid="{96454618-C667-42C2-917A-CAB439E0EF07}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{75DDE3BD-33DB-4400-841A-F10E35C5476B}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{D3489BEA-1CB6-4B9F-B385-105135EA898A}" name="torqueRatio"/>
-    <tableColumn id="3" xr3:uid="{22EE7A0B-9BD3-4382-B34B-F3B7056028B5}" name="power" dataDxfId="1">
-      <calculatedColumnFormula>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{22EE7A0B-9BD3-4382-B34B-F3B7056028B5}" name="power" dataDxfId="3">
+      <calculatedColumnFormula>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{26564222-AE3E-48CF-802E-73F103F4F2E0}" name="rpm" dataDxfId="2">
+      <calculatedColumnFormula>Table15[[#This Row],[normRpm]]*2200</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5438,13 +5588,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{393B493A-F60E-4EA4-9E5D-A7CD1C31A0CA}" name="Table136" displayName="Table136" ref="W3:Y14" totalsRowShown="0">
-  <autoFilter ref="W3:Y14" xr:uid="{92646E43-94F5-4B6B-81FD-90AE1BC5AD13}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{393B493A-F60E-4EA4-9E5D-A7CD1C31A0CA}" name="Table136" displayName="Table136" ref="W3:Z15" totalsRowShown="0">
+  <autoFilter ref="W3:Z15" xr:uid="{92646E43-94F5-4B6B-81FD-90AE1BC5AD13}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F1F49EFE-4FE4-4192-A43D-404E8C3ED45E}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{4556CC66-948F-4098-B17F-7C188424CADC}" name="torqueRatio"/>
-    <tableColumn id="3" xr3:uid="{6D1085E7-65F5-4AEC-A681-CE089F299D4A}" name="power" dataDxfId="0">
-      <calculatedColumnFormula>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{6D1085E7-65F5-4AEC-A681-CE089F299D4A}" name="power" dataDxfId="1">
+      <calculatedColumnFormula>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{69116990-74A4-4BAC-BBEB-AFC5013CAB60}" name="rpm" dataDxfId="0">
+      <calculatedColumnFormula>Table136[[#This Row],[normRpm]]*2200</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5748,10 +5901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9FCF9-C01C-4307-8CA7-68254BC8189F}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,44 +5913,44 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5">
-        <f>1/B13-1</f>
+        <f>1/B15-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1" s="5">
-        <f>1/G12-1</f>
+        <f>1/G14-1</f>
         <v>0.29870129870129869</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="5">
-        <f>1/M11-1</f>
+        <f>1/M12-1</f>
         <v>0.55038759689922467</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="5">
-        <f>1/S13-1</f>
+        <f>1/S15-1</f>
         <v>0.4992503748125936</v>
       </c>
       <c r="W1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y1" s="5">
-        <f>1/X12-1</f>
+        <f>1/X13-1</f>
         <v>0.20481927710843384</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5807,6 +5960,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -5816,6 +5972,9 @@
       <c r="H3" t="s">
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -5825,6 +5984,9 @@
       <c r="N3" t="s">
         <v>2</v>
       </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
       <c r="R3" t="s">
         <v>0</v>
       </c>
@@ -5834,6 +5996,9 @@
       <c r="T3" t="s">
         <v>2</v>
       </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
       <c r="W3" t="s">
         <v>0</v>
       </c>
@@ -5843,8 +6008,11 @@
       <c r="Y3" t="s">
         <v>2</v>
       </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5852,7 +6020,11 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -5862,7 +6034,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -5872,7 +6048,11 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
         <v>0</v>
       </c>
       <c r="R4">
@@ -5882,11 +6062,11 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
         <v>0</v>
       </c>
-      <c r="V4">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
+      <c r="U4">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
         <v>0</v>
       </c>
       <c r="W4">
@@ -5896,585 +6076,865 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
         <v>0</v>
       </c>
+      <c r="Z4">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="D5">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>220</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="I5">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>220</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="1">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>8.5271317829457377E-2</v>
+      </c>
+      <c r="O5">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>220</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T5" s="1">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>8.2458770614692659E-2</v>
+      </c>
+      <c r="U5">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>220</v>
+      </c>
+      <c r="W5">
+        <v>0.1</v>
+      </c>
+      <c r="X5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>6.6265060240963861E-2</v>
+      </c>
+      <c r="Z5">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.25</v>
       </c>
-      <c r="B5">
-        <v>0.7</v>
-      </c>
-      <c r="C5">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.24499999999999997</v>
-      </c>
-      <c r="F5">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>550</v>
+      </c>
+      <c r="F6">
         <v>0.25</v>
       </c>
-      <c r="G5">
-        <v>0.7</v>
-      </c>
-      <c r="H5">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="L5">
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.25974025974025977</v>
+      </c>
+      <c r="I6">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>550</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0.24806201550387602</v>
+      </c>
+      <c r="O6">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>440</v>
+      </c>
+      <c r="R6">
         <v>0.25</v>
       </c>
-      <c r="M5">
-        <v>0.7</v>
-      </c>
-      <c r="N5">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>0.27131782945736432</v>
-      </c>
-      <c r="R5">
+      <c r="S6">
+        <v>0.8</v>
+      </c>
+      <c r="T6">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>0.29985007496251875</v>
+      </c>
+      <c r="U6">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>550</v>
+      </c>
+      <c r="W6">
         <v>0.25</v>
       </c>
-      <c r="S5">
-        <v>0.7</v>
-      </c>
-      <c r="T5">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.26236881559220387</v>
-      </c>
-      <c r="V5">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>575</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>0.7</v>
-      </c>
-      <c r="Y5">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.21084337349397589</v>
+      <c r="X6">
+        <v>0.8</v>
+      </c>
+      <c r="Y6">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.24096385542168677</v>
+      </c>
+      <c r="Z6">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.4</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
+      <c r="B7">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.504</v>
-      </c>
-      <c r="F6">
-        <v>0.41</v>
-      </c>
-      <c r="G6">
+      <c r="C7">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.441</v>
+      </c>
+      <c r="D7">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>770</v>
+      </c>
+      <c r="F7">
+        <v>0.35</v>
+      </c>
+      <c r="G7">
         <v>0.9</v>
       </c>
-      <c r="H6">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.47922077922077921</v>
-      </c>
-      <c r="L6">
-        <v>0.4</v>
-      </c>
-      <c r="M6">
+      <c r="H7">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="I7">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>770</v>
+      </c>
+      <c r="L7">
+        <v>0.33</v>
+      </c>
+      <c r="M7">
         <v>0.95</v>
       </c>
-      <c r="N6">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>0.58914728682170536</v>
-      </c>
-      <c r="R6">
-        <v>0.4</v>
-      </c>
-      <c r="S6">
+      <c r="N7">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0.48604651162790696</v>
+      </c>
+      <c r="O7">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>726</v>
+      </c>
+      <c r="R7">
+        <v>0.35</v>
+      </c>
+      <c r="S7">
         <v>0.9</v>
       </c>
-      <c r="T6">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.53973013493253374</v>
-      </c>
-      <c r="V6">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>920</v>
-      </c>
-      <c r="W6">
-        <v>0.41</v>
-      </c>
-      <c r="X6">
+      <c r="T7">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>0.47226386806596699</v>
+      </c>
+      <c r="U7">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>770</v>
+      </c>
+      <c r="W7">
+        <v>0.35</v>
+      </c>
+      <c r="X7">
         <v>0.9</v>
       </c>
-      <c r="Y6">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.44457831325301206</v>
+      <c r="Y7">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.37951807228915663</v>
+      </c>
+      <c r="Z7">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.47</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.42</v>
+      </c>
+      <c r="B8">
         <v>0.96</v>
       </c>
-      <c r="C7">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.63167999999999991</v>
-      </c>
-      <c r="F7">
-        <v>0.48</v>
-      </c>
-      <c r="G7">
-        <v>0.97</v>
-      </c>
-      <c r="H7">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.60467532467532459</v>
-      </c>
-      <c r="L7">
-        <v>0.45</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="R7">
-        <v>0.47</v>
-      </c>
-      <c r="S7">
+      <c r="C8">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.56447999999999987</v>
+      </c>
+      <c r="D8">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>924</v>
+      </c>
+      <c r="F8">
+        <v>0.42</v>
+      </c>
+      <c r="G8">
         <v>0.96</v>
       </c>
-      <c r="T7">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.67646176911544209</v>
-      </c>
-      <c r="V7">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>1081</v>
-      </c>
-      <c r="W7">
-        <v>0.48</v>
-      </c>
-      <c r="X7">
-        <v>0.97</v>
-      </c>
-      <c r="Y7">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.5609638554216867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.54</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.7142857142857143</v>
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.52363636363636357</v>
+      </c>
+      <c r="I8">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>924</v>
       </c>
       <c r="L8">
-        <v>0.64500000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>1</v>
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0.65116279069767435</v>
+      </c>
+      <c r="O8">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>924</v>
       </c>
       <c r="R8">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="T8">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.79460269865067468</v>
-      </c>
-      <c r="V8">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>1219</v>
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>0.60449775112443771</v>
+      </c>
+      <c r="U8">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>924</v>
       </c>
       <c r="W8">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="Y8">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.66265060240963869</v>
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.48578313253012045</v>
+      </c>
+      <c r="Z8">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>924</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.91</v>
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D9">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>1122</v>
       </c>
       <c r="F9">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.80519480519480513</v>
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="I9">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>1100</v>
       </c>
       <c r="L9">
-        <v>0.81</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>1.0046511627906978</v>
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>1419</v>
       </c>
       <c r="R9">
-        <v>0.57999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.86956521739130421</v>
-      </c>
-      <c r="V9">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>1334</v>
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>0.7496251874062968</v>
+      </c>
+      <c r="U9">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>1100</v>
       </c>
       <c r="W9">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.74698795180722899</v>
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="Z9">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D10">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>1386</v>
+      </c>
+      <c r="F10">
+        <v>0.59</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.76623376623376616</v>
+      </c>
+      <c r="I10">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>1298</v>
+      </c>
+      <c r="L10">
+        <v>0.81</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>1.0046511627906978</v>
+      </c>
+      <c r="O10">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>1782.0000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.63</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>0.94452773613193397</v>
+      </c>
+      <c r="U10">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>1386</v>
+      </c>
+      <c r="W10">
+        <v>0.59</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.71084337349397586</v>
+      </c>
+      <c r="Z10">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.73</v>
+      </c>
+      <c r="B11">
+        <v>0.97</v>
+      </c>
+      <c r="C11">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>0.99133999999999989</v>
+      </c>
+      <c r="D11">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>1606</v>
+      </c>
+      <c r="F11">
+        <v>0.74</v>
+      </c>
+      <c r="G11">
+        <v>0.96</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.92259740259740253</v>
+      </c>
+      <c r="I11">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>1628</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>0.72</v>
+      </c>
+      <c r="N11">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>1.0046511627906978</v>
+      </c>
+      <c r="O11">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>1980</v>
+      </c>
+      <c r="R11">
+        <v>0.72</v>
+      </c>
+      <c r="S11">
+        <v>0.95</v>
+      </c>
+      <c r="T11">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>1.025487256371814</v>
+      </c>
+      <c r="U11">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>1584</v>
+      </c>
+      <c r="W11">
+        <v>0.73</v>
+      </c>
+      <c r="X11">
+        <v>0.96</v>
+      </c>
+      <c r="Y11">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.84433734939759042</v>
+      </c>
+      <c r="Z11">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.84</v>
+      </c>
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>1.0584</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>1848</v>
+      </c>
+      <c r="F12">
+        <v>0.83</v>
+      </c>
+      <c r="G12">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>0.99168831168831162</v>
+      </c>
+      <c r="I12" s="1">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>1826</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N12">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>2200</v>
+      </c>
+      <c r="R12">
+        <v>0.82</v>
+      </c>
+      <c r="S12">
+        <v>0.87</v>
+      </c>
+      <c r="T12">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>1.0695652173913042</v>
+      </c>
+      <c r="U12">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>1804</v>
+      </c>
+      <c r="W12">
+        <v>0.89</v>
+      </c>
+      <c r="X12">
+        <v>0.89</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.95433734939759041</v>
+      </c>
+      <c r="Z12">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.89</v>
+      </c>
+      <c r="B13">
+        <v>0.86</v>
+      </c>
+      <c r="C13">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>1.0715599999999998</v>
+      </c>
+      <c r="D13">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>1958</v>
+      </c>
+      <c r="F13">
+        <v>0.91</v>
+      </c>
+      <c r="G13">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>1.021090909090909</v>
+      </c>
+      <c r="I13">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>2002</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N13" s="1">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0.92620155038759677</v>
+      </c>
+      <c r="O13">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>2266</v>
+      </c>
+      <c r="R13">
+        <v>0.87</v>
+      </c>
+      <c r="S13">
+        <v>0.83</v>
+      </c>
+      <c r="T13" s="1">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>1.0826086956521739</v>
+      </c>
+      <c r="U13" s="1">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>1914</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0.93</v>
       </c>
-      <c r="C10">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>0.98952000000000007</v>
-      </c>
-      <c r="F10">
-        <v>0.76</v>
-      </c>
-      <c r="G10">
-        <v>0.93</v>
-      </c>
-      <c r="H10">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.91792207792207803</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>0.72</v>
-      </c>
-      <c r="N10">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>1.0046511627906978</v>
-      </c>
-      <c r="R10">
-        <v>0.71</v>
-      </c>
-      <c r="S10">
-        <v>0.93</v>
-      </c>
-      <c r="T10">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0.98995502248875555</v>
-      </c>
-      <c r="V10">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>1633</v>
-      </c>
-      <c r="W10">
-        <v>0.76</v>
-      </c>
-      <c r="X10">
-        <v>0.96</v>
-      </c>
-      <c r="Y10">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.87903614457831336</v>
+      <c r="B14">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
+        <v>1.0546200000000001</v>
+      </c>
+      <c r="D14">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>2046</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>2200</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$12</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>Table134[[#This Row],[normRpm]]*2200</f>
+        <v>2420</v>
+      </c>
+      <c r="R14">
+        <v>0.92</v>
+      </c>
+      <c r="S14">
+        <v>0.77</v>
+      </c>
+      <c r="T14">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>1.0620689655172413</v>
+      </c>
+      <c r="U14">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>2024</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="X14">
+        <v>0.79</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
+        <v>0.97084337349397609</v>
+      </c>
+      <c r="Z14">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>2244</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.87</v>
-      </c>
-      <c r="B11">
-        <v>0.85</v>
-      </c>
-      <c r="C11">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>1.0352999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.94</v>
-      </c>
-      <c r="G11">
-        <v>0.81</v>
-      </c>
-      <c r="H11" s="1">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>0.98883116883116873</v>
-      </c>
-      <c r="L11">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="N11">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0.82</v>
-      </c>
-      <c r="S11">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="T11">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>1.0511244377811093</v>
-      </c>
-      <c r="V11">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>1886</v>
-      </c>
-      <c r="W11">
-        <v>0.94</v>
-      </c>
-      <c r="X11">
-        <v>0.87</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.98530120481927708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.93</v>
-      </c>
-      <c r="B12">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
-        <v>1.0416000000000001</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="H12" s="1">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N12" s="1">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
-        <v>0.92620155038759677</v>
-      </c>
-      <c r="R12">
-        <v>0.92</v>
-      </c>
-      <c r="S12">
-        <v>0.76</v>
-      </c>
-      <c r="T12">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>1.0482758620689656</v>
-      </c>
-      <c r="V12">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>2116</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="Y12" s="1">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <f>1/1.4</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="C13" s="1">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
+      <c r="C15" s="1">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="D15">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>2200</v>
+      </c>
+      <c r="F15" s="4">
         <v>1.02</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>0.73</v>
       </c>
-      <c r="H13" s="1">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
+      <c r="H15" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
         <v>0.96701298701298699</v>
       </c>
-      <c r="L13" s="4">
+      <c r="I15">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>2244</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="T15" s="1">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>2200</v>
+      </c>
+      <c r="W15" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M13">
+      <c r="X15">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <f>Table134[[#This Row],[normRpm]]*Table134[[#This Row],[torqueRatio]]/M$11</f>
+      <c r="Y15" s="1">
+        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$13</f>
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="T13" s="1">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>2300</v>
-      </c>
-      <c r="W13" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="X13">
-        <v>0.79</v>
-      </c>
-      <c r="Y13" s="1">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
-        <v>0.97084337349397609</v>
+      <c r="Z15">
+        <f>Table136[[#This Row],[normRpm]]*2200</f>
+        <v>2420</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>1.03</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>0.64</v>
       </c>
-      <c r="C14" s="1">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
+      <c r="C16" s="1">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
         <v>0.92288000000000003</v>
       </c>
-      <c r="F14" s="4">
+      <c r="D16">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>2266</v>
+      </c>
+      <c r="F16" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
-        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$12</f>
+      <c r="H16" s="1">
+        <f>Table13[[#This Row],[normRpm]]*Table13[[#This Row],[torqueRatio]]/G$14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="4">
+      <c r="I16">
+        <f>Table13[[#This Row],[normRpm]]*2200</f>
+        <v>2420</v>
+      </c>
+      <c r="R16" s="4">
         <v>1.03</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S16" s="2">
         <v>0.6</v>
       </c>
-      <c r="T14" s="1">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
+      <c r="T16" s="1">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
         <v>0.92653673163418282</v>
       </c>
-      <c r="V14">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>2369</v>
-      </c>
-      <c r="W14" s="4">
+      <c r="U16">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X14">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
-        <f>Table136[[#This Row],[normRpm]]*Table136[[#This Row],[torqueRatio]]/X$12</f>
+      <c r="C17" s="1">
+        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="D17">
+        <f>Table1[[#This Row],[normRpm]]*2200</f>
+        <v>2420</v>
+      </c>
+      <c r="R17" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B15">
+      <c r="S17">
         <v>0</v>
       </c>
-      <c r="C15" s="1">
-        <f>Table1[[#This Row],[normRpm]]*Table1[[#This Row],[torqueRatio]]/B$13</f>
+      <c r="T17" s="1">
+        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <f>Table15[[#This Row],[normRpm]]*Table15[[#This Row],[torqueRatio]]/S$13</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>Table15[[#This Row],[normRpm]]*2300</f>
-        <v>2530</v>
+      <c r="U17">
+        <f>Table15[[#This Row],[normRpm]]*2200</f>
+        <v>2420</v>
       </c>
     </row>
   </sheetData>
